--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.201699999999994</v>
+        <v>-7.29679999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.1195</v>
+        <v>-13.33369999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.77159999999997</v>
+        <v>-21.67489999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.54330000000002</v>
+        <v>-21.56669999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.47459999999998</v>
+        <v>-14.29339999999998</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.2393</v>
+        <v>-22.29080000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.200299999999991</v>
+        <v>-8.173599999999993</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.024499999999991</v>
+        <v>-8.890399999999993</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.15440000000001</v>
+        <v>-11.9074</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.834400000000002</v>
+        <v>-9.0063</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.5573</v>
+        <v>-11.43090000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.84889999999999</v>
+        <v>-12.79189999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.0687</v>
+        <v>-13.3266</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.38010000000001</v>
+        <v>-20.62340000000001</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.4351</v>
+        <v>-13.55050000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-9.083599999999995</v>
+        <v>-8.688899999999993</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.504299999999998</v>
+        <v>-7.4522</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.581300000000003</v>
+        <v>-7.554199999999997</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.3684</v>
+        <v>-22.2976</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.306199999999992</v>
+        <v>-8.441899999999993</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.67819999999999</v>
+        <v>-21.632</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.5064</v>
+        <v>-11.6218</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.629699999999999</v>
+        <v>-7.5914</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.1237</v>
+        <v>-12.0884</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.90429999999999</v>
+        <v>-20.7957</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.49989999999998</v>
+        <v>-20.46299999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.61959999999999</v>
+        <v>-13.80019999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.9075</v>
+        <v>-13.37649999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.715799999999998</v>
+        <v>-7.7357</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.79650000000001</v>
+        <v>-12.9976</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.57</v>
+        <v>-12.3704</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,10 +2151,10 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.41020000000001</v>
+        <v>-13.74090000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.128499999999997</v>
+        <v>-8.070799999999997</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.06760000000001</v>
+        <v>-13.30270000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
